--- a/Lab02/homework/data.xlsx
+++ b/Lab02/homework/data.xlsx
@@ -17,7 +17,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
-    <t>A</t>
+    <t>Trước       
+                        Sau</t>
   </si>
   <si>
     <t>Quý 4-2016</t>

--- a/Lab02/homework/data.xlsx
+++ b/Lab02/homework/data.xlsx
@@ -17,8 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
-    <t>Trước       
-                        Sau</t>
+    <t>Trước Sau</t>
   </si>
   <si>
     <t>Quý 4-2016</t>
